--- a/database/Export/Tabelas Finais/POF 2017 TBL_3/Tabela3.xlsx
+++ b/database/Export/Tabelas Finais/POF 2017 TBL_3/Tabela3.xlsx
@@ -398,65 +398,65 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Isotônico e Energético</t>
+          <t>Bebida Adoçada</t>
         </is>
       </c>
       <c r="B3">
-        <v>282</v>
+        <v>7079</v>
       </c>
       <c r="C3">
-        <v>0.5604133545310016</v>
+        <v>14.06796502384738</v>
       </c>
       <c r="D3">
-        <v>0.8245855141963215</v>
+        <v>20.69943565601334</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bebida Adoçada</t>
+          <t>Bebida Adoçada a Base de Leite</t>
         </is>
       </c>
       <c r="B4">
-        <v>7079</v>
+        <v>8885</v>
       </c>
       <c r="C4">
-        <v>14.06796502384738</v>
+        <v>17.65699523052464</v>
       </c>
       <c r="D4">
-        <v>20.69943565601334</v>
+        <v>25.98029182139829</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bebida Adoçada a Base de Leite</t>
+          <t>Café e Chá</t>
         </is>
       </c>
       <c r="B5">
-        <v>8885</v>
+        <v>14034</v>
       </c>
       <c r="C5">
-        <v>17.65699523052464</v>
+        <v>27.88950715421304</v>
       </c>
       <c r="D5">
-        <v>25.98029182139829</v>
+        <v>41.03628761074885</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Café e Chá</t>
+          <t>Isotônico e Energético</t>
         </is>
       </c>
       <c r="B6">
-        <v>14034</v>
+        <v>282</v>
       </c>
       <c r="C6">
-        <v>27.88950715421304</v>
+        <v>0.5604133545310016</v>
       </c>
       <c r="D6">
-        <v>41.03628761074885</v>
+        <v>0.8245855141963215</v>
       </c>
     </row>
     <row r="7">

--- a/database/Export/Tabelas Finais/POF 2017 TBL_3/Tabela3.xlsx
+++ b/database/Export/Tabelas Finais/POF 2017 TBL_3/Tabela3.xlsx
@@ -386,13 +386,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>3630</v>
+        <v>3622</v>
       </c>
       <c r="C2">
-        <v>7.213831478537361</v>
+        <v>7.197933227344992</v>
       </c>
       <c r="D2">
-        <v>10.61434544869733</v>
+        <v>10.592811394145</v>
       </c>
     </row>
     <row r="3">
@@ -408,7 +408,7 @@
         <v>14.06796502384738</v>
       </c>
       <c r="D3">
-        <v>20.69943565601334</v>
+        <v>20.70306787939052</v>
       </c>
     </row>
     <row r="4">
@@ -424,7 +424,7 @@
         <v>17.65699523052464</v>
       </c>
       <c r="D4">
-        <v>25.98029182139829</v>
+        <v>25.98485070043576</v>
       </c>
     </row>
     <row r="5">
@@ -440,7 +440,7 @@
         <v>27.88950715421304</v>
       </c>
       <c r="D5">
-        <v>41.03628761074885</v>
+        <v>41.04348843330507</v>
       </c>
     </row>
     <row r="6">
@@ -456,7 +456,7 @@
         <v>0.5604133545310016</v>
       </c>
       <c r="D6">
-        <v>0.8245855141963215</v>
+        <v>0.8247302079372971</v>
       </c>
     </row>
     <row r="7">
@@ -472,7 +472,7 @@
         <v>39.45151033386328</v>
       </c>
       <c r="D7">
-        <v>58.04848094973537</v>
+        <v>58.05866697862135</v>
       </c>
     </row>
     <row r="8">
@@ -488,7 +488,7 @@
         <v>21.79054054054054</v>
       </c>
       <c r="D8">
-        <v>32.06234100412293</v>
+        <v>32.06796712777469</v>
       </c>
     </row>
     <row r="9">
@@ -504,7 +504,7 @@
         <v>0.5624006359300477</v>
       </c>
       <c r="D9">
-        <v>0.8275095763034007</v>
+        <v>0.8276547831427485</v>
       </c>
     </row>
     <row r="10">
@@ -520,7 +520,7 @@
         <v>5.218600953895072</v>
       </c>
       <c r="D10">
-        <v>7.67858709318986</v>
+        <v>7.679934489515398</v>
       </c>
     </row>
     <row r="11">
@@ -530,10 +530,10 @@
         </is>
       </c>
       <c r="B11">
-        <v>34199</v>
+        <v>34193</v>
       </c>
       <c r="C11">
-        <v>67.96303656597775</v>
+        <v>67.95111287758347</v>
       </c>
       <c r="D11">
         <v>100</v>
